--- a/07. Project Office/Project Plan.xlsx
+++ b/07. Project Office/Project Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aracj\babbii\[Team A] -  Project X (Automated Attendance System)\ProjectX\7. Deliverables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aracj\babbii\[Team A] -  Project X (Automated Attendance System)\ProjectX\07. Project Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322EB5FF-6B8D-4862-9B95-6226F18A7D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEB2B2E-6FFF-4CCE-951B-C167F9E394D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -350,7 +350,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -604,21 +604,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -670,111 +655,26 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -835,242 +735,12 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1104,48 +774,6 @@
       <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1165,7 +793,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{868A33A6-E6E2-4D8C-AD65-FEC778433F03}" name="Table1" displayName="Table1" ref="H3:H30" totalsRowShown="0" headerRowDxfId="36" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{868A33A6-E6E2-4D8C-AD65-FEC778433F03}" name="Table1" displayName="Table1" ref="H3:H30" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="H3:H30" xr:uid="{868A33A6-E6E2-4D8C-AD65-FEC778433F03}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
@@ -1379,9 +1007,9 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="72" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1395,27 +1023,27 @@
     <col min="7" max="7" width="22.109375" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="22.5546875" customWidth="1"/>
     <col min="10" max="10" width="19.33203125" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" style="9" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="27" style="9" customWidth="1"/>
+    <col min="12" max="12" width="24.5546875" customWidth="1"/>
     <col min="13" max="13" width="22" customWidth="1"/>
     <col min="14" max="14" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
       <c r="M1" s="14"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
@@ -1432,28 +1060,28 @@
       <c r="AA1" s="8"/>
     </row>
     <row r="2" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27" t="str">
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="43" t="str">
         <f ca="1">"Days Left: " &amp; (DATE(2025,5,2) - TODAY()) &amp; " days"</f>
-        <v>Days Left: 41 days</v>
+        <v>Days Left: 17 days</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28" t="str">
-        <f>"Task Done: " &amp;COUNTIF(L3:L47, "Done") &amp; " / " &amp; COUNTA(L3:L47)</f>
-        <v>Task Done: 10 / 27</v>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="41" t="str">
+        <f>"Task Done: " &amp; COUNTIF(L3:L31, "Done") &amp; " / " &amp; (COUNTIF(L3:L31, "Done") + COUNTIF(L3:L31, "Ongoing")) &amp; " (" &amp; TEXT(COUNTIF(L3:L31, "Done") / (COUNTIF(L3:L31, "Done") + COUNTIF(L3:L31, "Ongoing")), "0.00%") &amp; ")"</f>
+        <v>Task Done: 19 / 24 (79.17%)</v>
       </c>
-      <c r="L2" s="28"/>
+      <c r="L2" s="41"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -1469,40 +1097,40 @@
       <c r="AA2" s="2"/>
     </row>
     <row r="3" spans="1:27" s="13" customFormat="1" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="24" t="s">
         <v>7</v>
       </c>
       <c r="M3" s="12"/>
@@ -1522,40 +1150,40 @@
       <c r="AA3" s="12"/>
     </row>
     <row r="4" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="A4" s="28">
         <v>1</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="28">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="33" t="s">
+      <c r="E4" s="29"/>
+      <c r="F4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="30">
         <v>10</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="31">
         <f>DATEVALUE(TRIM(MID(A2, FIND(":", A2) + 1, LEN(A2))))</f>
         <v>45720</v>
       </c>
-      <c r="I4" s="36">
-        <f t="shared" ref="I4:I30" si="0">H4 + CEILING(G4/10,1)-1</f>
+      <c r="I4" s="31">
+        <f t="shared" ref="I4:I29" si="0">H4 + CEILING(G4/10,1)-1</f>
         <v>45720</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="31">
         <v>45720</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="31">
         <v>45720</v>
       </c>
-      <c r="L4" s="37" t="str">
+      <c r="L4" s="32" t="str">
         <f t="shared" ref="L4:L10" si="1">IF(K4&lt;&gt;"","Done", IF(J4&lt;&gt;"","Ongoing","Pending"))</f>
         <v>Done</v>
       </c>
@@ -1578,38 +1206,38 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33">
         <v>1.2</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="35">
         <v>10</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="36">
         <f>WORKDAY(I4, IF(SUMIF(I$4:I4, I4, G$4:G4) + G5 &lt;= 8, 0, 1))</f>
         <v>45721</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="36">
         <f t="shared" si="0"/>
         <v>45721</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="36">
         <v>45722</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="36">
         <v>45722</v>
       </c>
-      <c r="L5" s="37" t="str">
+      <c r="L5" s="32" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
@@ -1630,42 +1258,42 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="28">
         <v>2.1</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="30">
         <v>2</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="36">
         <f>WORKDAY(I5, IF(SUMIF(I$4:I5, I5, G$4:G5) + G6 &lt;= 8, 0, 1))</f>
         <v>45722</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="31">
         <f t="shared" si="0"/>
         <v>45722</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="31">
         <v>45723</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="31">
         <v>45723</v>
       </c>
-      <c r="L6" s="37" t="str">
+      <c r="L6" s="32" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
@@ -1686,38 +1314,38 @@
       <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="35">
         <v>2</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="36">
         <f>WORKDAY(I6, IF(SUMIF(I$4:I6, I6, G$4:G6) + G7 &lt;= 8, 0, 1))</f>
         <v>45722</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="36">
         <f t="shared" si="0"/>
         <v>45722</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="36">
         <v>45727</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="36">
         <v>45727</v>
       </c>
-      <c r="L7" s="37" t="str">
+      <c r="L7" s="32" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
@@ -1738,38 +1366,38 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="30">
         <v>2</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="36">
         <f>WORKDAY(I7, IF(SUMIF(I$4:I7, I7, G$4:G7) + G8 &lt;= 8, 0, 1))</f>
         <v>45722</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="31">
         <f t="shared" si="0"/>
         <v>45722</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="31">
         <v>45728</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="37">
         <v>45728</v>
       </c>
-      <c r="L8" s="37" t="str">
+      <c r="L8" s="32" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
@@ -1790,38 +1418,38 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33">
         <v>2.4</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="35">
         <v>2</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="36">
         <f>WORKDAY(I8, IF(SUMIF(I$4:I8, I8, G$4:G8) + G9 &lt;= 8, 0, 1))</f>
         <v>45722</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="36">
         <f t="shared" si="0"/>
         <v>45722</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="36">
         <v>45728</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="36">
         <v>45728</v>
       </c>
-      <c r="L9" s="37" t="str">
+      <c r="L9" s="32" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
@@ -1844,42 +1472,42 @@
       <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="1:27" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="28">
         <v>3</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="28">
         <v>3.1</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="30">
         <v>12</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="36">
         <f>WORKDAY(I9, IF(SUMIF(I$4:I9, I9, G$4:G9) + G10 &lt;= 8, 0, 1))</f>
         <v>45723</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="31">
         <f t="shared" si="0"/>
         <v>45724</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="31">
         <v>45730</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="31">
         <v>45730</v>
       </c>
-      <c r="L10" s="37" t="str">
+      <c r="L10" s="32" t="str">
         <f t="shared" si="1"/>
         <v>Done</v>
       </c>
@@ -1900,38 +1528,38 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33">
         <v>3.2</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="35">
         <v>5</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="36">
         <f>WORKDAY(I10, IF(SUMIF(I$4:I10, I10, G$4:G10) + G11 &lt;= 8, 0, 1))</f>
         <v>45726</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="36">
         <f t="shared" si="0"/>
         <v>45726</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="36">
         <v>45737</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="36">
         <v>45737</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="32" t="s">
         <v>80</v>
       </c>
       <c r="M11" s="1"/>
@@ -1951,42 +1579,42 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+      <c r="A12" s="28">
         <v>4</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="28">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="30">
         <v>5</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="36">
         <f>WORKDAY(I11, IF(SUMIF(I$4:I11, I11, G$4:G11) + G12 &lt;= 8, 0, 1))</f>
         <v>45727</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="31">
         <f t="shared" si="0"/>
         <v>45727</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="31">
         <v>45737</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="31">
         <v>45737</v>
       </c>
-      <c r="L12" s="37" t="str">
+      <c r="L12" s="32" t="str">
         <f>IF(K12&lt;&gt;"","Done", IF(J12&lt;&gt;"","Ongoing","Pending"))</f>
         <v>Done</v>
       </c>
@@ -2007,38 +1635,40 @@
       <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33">
         <v>4.2</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="35">
         <v>3</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="36">
         <f>WORKDAY(I12, IF(SUMIF(I$4:I12, I12, G$4:G12) + G13 &lt;= 8, 0, 1))</f>
         <v>45727</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="36">
         <f t="shared" si="0"/>
         <v>45727</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="36">
         <v>45736</v>
       </c>
-      <c r="K13" s="41"/>
-      <c r="L13" s="37" t="str">
+      <c r="K13" s="36">
+        <v>45736</v>
+      </c>
+      <c r="L13" s="32" t="str">
         <f>IF(K13&lt;&gt;"","Done", IF(J13&lt;&gt;"","Ongoing","Pending"))</f>
-        <v>Ongoing</v>
+        <v>Done</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2057,38 +1687,40 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28">
         <v>4.3</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="30">
         <v>3</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="36">
         <f>WORKDAY(I13, IF(SUMIF(I$4:I13, I13, G$4:G13) + G14 &lt;= 8, 0, 1))</f>
         <v>45728</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="31">
         <f t="shared" si="0"/>
         <v>45728</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="31">
         <v>45736</v>
       </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="37" t="str">
+      <c r="K14" s="31">
+        <v>45736</v>
+      </c>
+      <c r="L14" s="32" t="str">
         <f>IF(K14&lt;&gt;"","Done", IF(J14&lt;&gt;"","Ongoing","Pending"))</f>
-        <v>Ongoing</v>
+        <v>Done</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -2107,36 +1739,38 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="35">
         <v>28</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="36">
         <f>WORKDAY(I14, IF(SUMIF(I$4:I14, I14, G$4:G14) + G15 &lt;= 8, 0, 1))</f>
         <v>45729</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="36">
         <f t="shared" si="0"/>
         <v>45731</v>
       </c>
-      <c r="J15" s="41">
+      <c r="J15" s="36">
         <v>45734</v>
       </c>
-      <c r="K15" s="41"/>
-      <c r="L15" s="37" t="s">
+      <c r="K15" s="36">
+        <v>45744</v>
+      </c>
+      <c r="L15" s="32" t="s">
         <v>30</v>
       </c>
       <c r="M15" s="1"/>
@@ -2156,42 +1790,42 @@
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="28">
         <v>5</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="28">
         <v>5</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="30">
         <v>2</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="36">
         <f>WORKDAY(I15, IF(SUMIF(I$4:I15, I15, G$4:G15) + G16 &lt;= 8, 0, 1))</f>
         <v>45733</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="31">
         <f t="shared" si="0"/>
         <v>45733</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="31">
         <v>45730</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="31">
         <v>45730</v>
       </c>
-      <c r="L16" s="37" t="str">
+      <c r="L16" s="32" t="str">
         <f t="shared" ref="L16:L29" si="2">IF(K16&lt;&gt;"","Done", IF(J16&lt;&gt;"","Ongoing","Pending"))</f>
         <v>Done</v>
       </c>
@@ -2212,40 +1846,44 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="A17" s="33">
         <v>6</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="33">
         <v>6.1</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="35">
         <v>5</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="36">
         <f>WORKDAY(I16, IF(SUMIF(I$4:I16, I16, G$4:G16) + G17 &lt;= 8, 0, 1))</f>
         <v>45733</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="36">
         <f t="shared" si="0"/>
         <v>45733</v>
       </c>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="37" t="str">
+      <c r="J17" s="36">
+        <v>45744</v>
+      </c>
+      <c r="K17" s="36">
+        <v>45736</v>
+      </c>
+      <c r="L17" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Pending</v>
+        <v>Done</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -2264,36 +1902,40 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28">
         <v>6.2</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="30">
         <v>5</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="36">
         <f>WORKDAY(I17, IF(SUMIF(I$4:I17, I17, G$4:G17) + G18 &lt;= 8, 0, 1))</f>
         <v>45734</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="31">
         <f t="shared" si="0"/>
         <v>45734</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="37" t="str">
+      <c r="J18" s="31">
+        <v>45721</v>
+      </c>
+      <c r="K18" s="31">
+        <v>45752</v>
+      </c>
+      <c r="L18" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Pending</v>
+        <v>Done</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -2312,36 +1954,40 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33">
         <v>6.3</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="35">
         <v>8</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="36">
         <f>WORKDAY(I18, IF(SUMIF(I$4:I18, I18, G$4:G18) + G19 &lt;= 8, 0, 1))</f>
         <v>45735</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="36">
         <f t="shared" si="0"/>
         <v>45735</v>
       </c>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="37" t="str">
+      <c r="J19" s="36">
+        <v>45726</v>
+      </c>
+      <c r="K19" s="36">
+        <v>45762</v>
+      </c>
+      <c r="L19" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Pending</v>
+        <v>Done</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -2360,40 +2006,44 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
+      <c r="A20" s="28">
         <v>7</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="28">
         <v>7</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="30">
         <v>200</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="36">
         <f>WORKDAY(I19, IF(SUMIF(I$4:I19, I19, G$4:G19) + G20 &lt;= 8, 0, 1))</f>
         <v>45736</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="31">
         <f t="shared" si="0"/>
         <v>45755</v>
       </c>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="37" t="str">
+      <c r="J20" s="31">
+        <v>45757</v>
+      </c>
+      <c r="K20" s="31">
+        <v>45762</v>
+      </c>
+      <c r="L20" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Pending</v>
+        <v>Done</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2412,40 +2062,42 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+      <c r="A21" s="33">
         <v>8</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="33">
         <v>8.1</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="35">
         <v>25</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="36">
         <f>WORKDAY(I20, IF(SUMIF(I$4:I20, I20, G$4:G20) + G21 &lt;= 8, 0, 1))</f>
         <v>45756</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="36">
         <f t="shared" si="0"/>
         <v>45758</v>
       </c>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="37" t="str">
+      <c r="J21" s="36">
+        <v>45752</v>
+      </c>
+      <c r="K21" s="36"/>
+      <c r="L21" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Pending</v>
+        <v>Ongoing</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2464,36 +2116,40 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="30">
         <v>15</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="36">
         <f>WORKDAY(I21, IF(SUMIF(I$4:I21, I21, G$4:G21) + G22 &lt;= 8, 0, 1))</f>
         <v>45761</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="31">
         <f t="shared" si="0"/>
         <v>45762</v>
       </c>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="37" t="str">
+      <c r="J22" s="31">
+        <v>45749</v>
+      </c>
+      <c r="K22" s="31">
+        <v>45759</v>
+      </c>
+      <c r="L22" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Pending</v>
+        <v>Done</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -2512,36 +2168,38 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="35">
         <v>20</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H23" s="36">
         <f>WORKDAY(I22, IF(SUMIF(I$4:I22, I22, G$4:G22) + G23 &lt;= 8, 0, 1))</f>
         <v>45763</v>
       </c>
-      <c r="I23" s="41">
+      <c r="I23" s="36">
         <f t="shared" si="0"/>
         <v>45764</v>
       </c>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="37" t="str">
+      <c r="J23" s="36">
+        <v>45750</v>
+      </c>
+      <c r="K23" s="36"/>
+      <c r="L23" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Pending</v>
+        <v>Ongoing</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -2560,36 +2218,38 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28">
         <v>8.4</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="30">
         <v>15</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="36">
         <f>WORKDAY(I23, IF(SUMIF(I$4:I23, I23, G$4:G23) + G24 &lt;= 8, 0, 1))</f>
         <v>45765</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="31">
         <f t="shared" si="0"/>
         <v>45766</v>
       </c>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="37" t="str">
+      <c r="J24" s="31">
+        <v>45757</v>
+      </c>
+      <c r="K24" s="31"/>
+      <c r="L24" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Pending</v>
+        <v>Ongoing</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2608,40 +2268,44 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
+      <c r="A25" s="33">
         <v>9</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="33">
         <v>9.1</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25" s="35">
         <v>48</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="36">
         <f>WORKDAY(I24, IF(SUMIF(I$4:I24, I24, G$4:G24) + G25 &lt;= 8, 0, 1))</f>
         <v>45768</v>
       </c>
-      <c r="I25" s="41">
+      <c r="I25" s="36">
         <f t="shared" si="0"/>
         <v>45772</v>
       </c>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="37" t="str">
+      <c r="J25" s="36">
+        <v>45753</v>
+      </c>
+      <c r="K25" s="36">
+        <v>45762</v>
+      </c>
+      <c r="L25" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Pending</v>
+        <v>Done</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -2660,34 +2324,34 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26" s="30">
         <v>8</v>
       </c>
-      <c r="H26" s="41">
+      <c r="H26" s="36">
         <f>WORKDAY(I25, IF(SUMIF(I$4:I25, I25, G$4:G25) + G26 &lt;= 8, 0, 1))</f>
         <v>45775</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="31">
         <f t="shared" si="0"/>
         <v>45775</v>
       </c>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="37" t="str">
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="32" t="str">
         <f t="shared" si="2"/>
         <v>Pending</v>
       </c>
@@ -2708,36 +2372,40 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27" s="35">
         <v>5</v>
       </c>
-      <c r="H27" s="41">
+      <c r="H27" s="36">
         <f>WORKDAY(I26, IF(SUMIF(I$4:I26, I26, G$4:G26) + G27 &lt;= 8, 0, 1))</f>
         <v>45776</v>
       </c>
-      <c r="I27" s="41">
+      <c r="I27" s="36">
         <f t="shared" si="0"/>
         <v>45776</v>
       </c>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="37" t="str">
+      <c r="J27" s="36">
+        <v>45749</v>
+      </c>
+      <c r="K27" s="36">
+        <v>45767</v>
+      </c>
+      <c r="L27" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Pending</v>
+        <v>Done</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -2756,40 +2424,42 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
+      <c r="A28" s="28">
         <v>10</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="28">
         <v>10.1</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="30">
         <v>5</v>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="36">
         <f>WORKDAY(I27, IF(SUMIF(I$4:I27, I27, G$4:G27) + G28 &lt;= 8, 0, 1))</f>
         <v>45777</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="31">
         <f t="shared" si="0"/>
         <v>45777</v>
       </c>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="37" t="str">
+      <c r="J28" s="31">
+        <v>45722</v>
+      </c>
+      <c r="K28" s="31"/>
+      <c r="L28" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Pending</v>
+        <v>Ongoing</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -2808,34 +2478,34 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="38">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="33">
         <v>10.199999999999999</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G29" s="35">
         <v>5</v>
       </c>
-      <c r="H29" s="41">
+      <c r="H29" s="36">
         <f>WORKDAY(I28, IF(SUMIF(I$4:I28, I28, G$4:G28) + G29 &lt;= 8, 0, 1))</f>
         <v>45778</v>
       </c>
-      <c r="I29" s="41">
+      <c r="I29" s="36">
         <f t="shared" si="0"/>
         <v>45778</v>
       </c>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="37" t="str">
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="32" t="str">
         <f t="shared" si="2"/>
         <v>Pending</v>
       </c>
@@ -30968,30 +30638,30 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="L4:L29">
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>AND(J4="", K4="")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15">
-      <formula>AND(J4&lt;&gt;"", K4="")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
-      <formula>K4&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A1:L1">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>COUNTIF(I4:I100, "&gt;2025-05-02") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L30">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$I4&gt;DATEVALUE("May 2, 2025")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:G2">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>COUNTIF(I4:I100, "&gt;2025-05-02") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:L1">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>COUNTIF(I4:I100, "&gt;2025-05-02") &gt; 0</formula>
+  <conditionalFormatting sqref="L4:L29">
+    <cfRule type="expression" dxfId="2" priority="14">
+      <formula>AND(J4="", K4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="15">
+      <formula>AND(J4&lt;&gt;"", K4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="16">
+      <formula>K4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
